--- a/资料/合同系统试用信息反馈-2015-8-28.xlsx
+++ b/资料/合同系统试用信息反馈-2015-8-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="22965" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="22965" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="系统信息反馈8-28" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -33,193 +33,198 @@
   </si>
   <si>
     <t>事 项</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增合同界面输入功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>从输入开始，完成一项信息输入，按回车键即进入下一事项的信息输入，而不用每一步都需要再点击鼠标。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息输入时可实现文字和数字、字母功能。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅需字母与数字功能。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如系统内已输入过一次的单位名称且有保存信息，在下一次输入同样单位名称时可自动检索，无需全称输入。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现选择多个支持文件。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收（付）款信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加实现：实际应收、应付款的信息录入功能。
+2、应收、应付款信息录入格式的问题，（2015-9-1这样的格式不能正常保存或显示错误提示）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面（内容）排序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待进一步试用后再调整。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算内功能信息录入。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可实现手动输入单位名称。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可实现选择一个支持文件。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可实现应收、应付款信息录入。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号与签约对象可查询。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可点击每一事项，输入合同信息，按回车键时会退出界面，或弹跳到其他信息输入点。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标部</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现新增合同界面打印功能（A4纸）
+2、实现各关键词的查询后汇总打印功能。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入信息的修改功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二个小模块在界面上不分开，在同一平行线或纵线上面。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同版本提供/格式版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面功能已具备</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子档或支持文件上传功能。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险预警功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同到期、质保金到期、履约保证金到期等提醒功能。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要信息修改功能，待审核功能实现时，需要有一定的权限或申请才可实现修改，不可随意修改。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同归档信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门提交归档合同时，在系统内设置对应的合同勾选框，点击勾选键即完成归档程序，后续完成纸质版归档手续。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同信息化系统管理-系统初次试用信息反馈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合同审核 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>应为合同审核中存在的问题记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不共享该资源给其他部门，仅供招标部查询。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>将备注栏修改为：合同违约条款描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算外的功能信息无法输入，没有格位。（已通过审批、未通过审批
+）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1、同时实现各关键词的功能查询：合同编号、合同名称、签约对象、签约日期、经办人、经办部门、合同到期日期、合同金额。
 2、可按关键词查询，倒出查询信息的汇总明细表。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增合同界面输入功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>从输入开始，完成一项信息输入，按回车键即进入下一事项的信息输入，而不用每一步都需要再点击鼠标。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息输入时可实现文字和数字、字母功能。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅需字母与数字功能。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算计划</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算外的功能信息无法输入，没有格位。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>如系统内已输入过一次的单位名称且有保存信息，在下一次输入同样单位名称时可自动检索，无需全称输入。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现选择多个支持文件。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收（付）款信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>将备注栏修改为：合同违约条款描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、增加实现：实际应收、应付款的信息录入功能。
-2、应收、应付款信息录入格式的问题，（2015-9-1这样的格式不能正常保存或显示错误提示）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面（内容）排序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待进一步试用后再调整。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预算内功能信息录入。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可实现手动输入单位名称。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可实现选择一个支持文件。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可实现应收、应付款信息录入。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号与签约对象可查询。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可点击每一事项，输入合同信息，按回车键时会退出界面，或弹跳到其他信息输入点。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>招标部</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、实现新增合同界面打印功能（A4纸）
-2、实现各关键词的查询后汇总打印功能。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入信息的修改功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>二个小模块在界面上不分开，在同一平行线或纵线上面。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同版本提供/格式版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面功能已具备</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子档或支持文件上传功能。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险预警功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同到期、质保金到期、履约保证金到期等提醒功能。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要信息修改功能，待审核功能实现时，需要有一定的权限或申请才可实现修改，不可随意修改。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同归档信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务部门提交归档合同时，在系统内设置对应的合同勾选框，点击勾选键即完成归档程序，后续完成纸质版归档手续。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同信息化系统管理-系统初次试用信息反馈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">合同审核 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>应为合同审核中存在的问题记录</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不共享该资源给其他部门，仅供招标部查询。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -279,15 +284,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -483,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,9 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -508,9 +509,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,10 +593,25 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,289 +960,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="25.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="48.625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A1" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
+        <v>17</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" customHeight="1">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" customHeight="1">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="56.25" customHeight="1">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14" t="s">
+    </row>
+    <row r="13" spans="1:5" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="D13" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="20" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="D14" s="34">
+        <v>42243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B15" s="3"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A16" s="30">
+        <v>1</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A19" s="31">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="48" customHeight="1">
+      <c r="A20" s="31">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A21" s="32">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1">
+      <c r="D22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="D13" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="D14" s="36">
-        <v>42243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
-        <v>1</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33">
-        <v>2</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
-        <v>6</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="36">
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1">
+      <c r="D23" s="34">
         <v>42244</v>
       </c>
     </row>

--- a/资料/合同系统试用信息反馈-2015-8-28.xlsx
+++ b/资料/合同系统试用信息反馈-2015-8-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -223,8 +223,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1、同时实现各关键词的功能查询：合同编号、合同名称、签约对象、签约日期、经办人、经办部门、合同到期日期、合同金额。
+    <t>1、同时实现各关键词的功能查询：合同编号、合同名称、签约对象、签约日期、经办人、经办部门、合同到期日期、合同金额（not）。
 2、可按关键词查询，倒出查询信息的汇总明细表。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复，部分</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -596,9 +600,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,6 +614,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -962,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1"/>
@@ -976,12 +980,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1024,21 +1028,24 @@
       <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="E4" s="40" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="56.25" customHeight="1">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1046,16 +1053,16 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1100,7 +1107,7 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1117,7 +1124,7 @@
       <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1134,7 +1141,7 @@
       <c r="D11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>48</v>
       </c>
     </row>

--- a/资料/合同系统试用信息反馈-2015-8-28.xlsx
+++ b/资料/合同系统试用信息反馈-2015-8-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="22965" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="22965" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="系统信息反馈8-28" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -218,17 +218,17 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>1、同时实现各关键词的功能查询：合同编号、合同名称、签约对象、签约日期、经办人、经办部门、合同到期日期、合同金额（not）。
+2、可按关键词查询，倒出查询信息的汇总明细表。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>预算外的功能信息无法输入，没有格位。（已通过审批、未通过审批
 ）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、同时实现各关键词的功能查询：合同编号、合同名称、签约对象、签约日期、经办人、经办部门、合同到期日期、合同金额（not）。
-2、可按关键词查询，倒出查询信息的汇总明细表。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复，部分</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1"/>
@@ -976,7 +976,7 @@
     <col min="2" max="2" width="25.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="48.625" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
@@ -1026,10 +1026,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="56.25" customHeight="1">
@@ -1077,7 +1077,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.5" customHeight="1">

--- a/资料/合同系统试用信息反馈-2015-8-28.xlsx
+++ b/资料/合同系统试用信息反馈-2015-8-28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="22965" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22965" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="系统信息反馈8-28" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>序号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -146,14 +146,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>二个小模块在界面上不分开，在同一平行线或纵线上面。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同版本提供/格式版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>界面功能已具备</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -190,10 +182,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>业务部门提交归档合同时，在系统内设置对应的合同勾选框，点击勾选键即完成归档程序，后续完成纸质版归档手续。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>合同信息化系统管理-系统初次试用信息反馈</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -207,10 +195,6 @@
   </si>
   <si>
     <t>不共享该资源给其他部门，仅供招标部查询。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -223,12 +207,32 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>预算外的功能信息无法输入，没有格位。（已通过审批、未通过审批
 ）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二个小模块在界面上不分开，在同一平行线或纵线上面。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同版本提供/格式版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门提交归档合同时，在系统内设置对应的合同勾选框，点击勾选键即完成归档程序，后续完成纸质版归档手续。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +971,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1"/>
@@ -981,7 +985,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" thickBot="1">
       <c r="A1" s="41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -1026,10 +1030,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="56.25" customHeight="1">
@@ -1046,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.5" customHeight="1">
@@ -1063,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1">
@@ -1077,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.5" customHeight="1">
@@ -1111,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="56.25" customHeight="1">
@@ -1128,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1">
@@ -1142,10 +1146,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
@@ -1189,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.25" customHeight="1">
@@ -1197,13 +1201,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.25" customHeight="1">
@@ -1211,13 +1215,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.25" customHeight="1">
@@ -1225,13 +1229,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="48" customHeight="1">
@@ -1239,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
@@ -1253,13 +1257,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1">
